--- a/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01813507260419134</v>
+        <v>0.01851694677020699</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04570027442266807</v>
+        <v>0.04680469776710696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05401217683533655</v>
+        <v>0.05198007646808097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005494357838727886</v>
+        <v>0.005607806746835231</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01050496378924566</v>
+        <v>0.01182555248520332</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05054414652703924</v>
+        <v>0.04708185190089672</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05128878103140459</v>
+        <v>0.04928467874584384</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02001699927392294</v>
+        <v>0.02000935325959897</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01894722274219245</v>
+        <v>0.01978700008373767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05563463089130825</v>
+        <v>0.05645137268213964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06161151111783292</v>
+        <v>0.06201458205842793</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0152580619046785</v>
+        <v>0.01544661595274296</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07134661083023157</v>
+        <v>0.07276039842757413</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1122050301248652</v>
+        <v>0.1172126448141981</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1309452657675839</v>
+        <v>0.1244453401612395</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0331507378980266</v>
+        <v>0.03348224758260613</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05888285082926882</v>
+        <v>0.06252254399601856</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.115795993749348</v>
+        <v>0.1167411798665322</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1217506747326328</v>
+        <v>0.1181232229749621</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0856875483668228</v>
+        <v>0.08187400317160017</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05528877011019603</v>
+        <v>0.05622209064469999</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1016923101431391</v>
+        <v>0.1006818117448799</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1094208231541385</v>
+        <v>0.1111824049374335</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04944936464626746</v>
+        <v>0.05053567809156478</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03762979546942142</v>
+        <v>0.03715565735318226</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04947173224577244</v>
+        <v>0.04767288387606968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04798199796899392</v>
+        <v>0.0499793298852531</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02978897526417836</v>
+        <v>0.0284825140225274</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06027609934865018</v>
+        <v>0.05926678732167406</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03625030900178401</v>
+        <v>0.03684615653125619</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04808684851370428</v>
+        <v>0.04766640663113515</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0278075033479486</v>
+        <v>0.02703498110577146</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05403830534960219</v>
+        <v>0.05435032839723753</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04851000388284982</v>
+        <v>0.04816389771349579</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05363856255699503</v>
+        <v>0.05353068393519556</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0329312321508092</v>
+        <v>0.03272887332900633</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07983011508661236</v>
+        <v>0.08281488661063549</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09891314412827112</v>
+        <v>0.09721570797288889</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09802542174653331</v>
+        <v>0.09520047381444458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0839118554245538</v>
+        <v>0.08556754301589681</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1078203570731276</v>
+        <v>0.1080956329851503</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07363905074892786</v>
+        <v>0.07651811659878235</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09370142462311068</v>
+        <v>0.09295004977693454</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06840913393517843</v>
+        <v>0.06408686391908718</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08476334775725598</v>
+        <v>0.08557841022019372</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08035598542765714</v>
+        <v>0.08067743296326978</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08504278554428016</v>
+        <v>0.08561740050803707</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06522020509330713</v>
+        <v>0.06355617531382006</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04231728590361222</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04760140625213227</v>
+        <v>0.04760140625213228</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07127429599486125</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04770301852131734</v>
+        <v>0.04748488176920739</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01830121429438412</v>
+        <v>0.01906905447470846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005935936892953222</v>
+        <v>0.005653108150700848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02730318349364435</v>
+        <v>0.02747209857185594</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04357520890503363</v>
+        <v>0.04317709135463988</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02376603871631921</v>
+        <v>0.02532593957764948</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02541133349090923</v>
+        <v>0.02419761165592751</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02832598861451828</v>
+        <v>0.02907935117133142</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05268773166812153</v>
+        <v>0.05400021738082325</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02679412941688903</v>
+        <v>0.0275912177120227</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01755013050942058</v>
+        <v>0.01857944722843348</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03378553025567078</v>
+        <v>0.03325355080860641</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1134679928092412</v>
+        <v>0.112930992155215</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05920460633874679</v>
+        <v>0.05871107377135068</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03673273873561917</v>
+        <v>0.03845274649438606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08277766177265602</v>
+        <v>0.07826674755797595</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1030559832771719</v>
+        <v>0.09919019367435372</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06961616746840628</v>
+        <v>0.07257387735055539</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06779932551564853</v>
+        <v>0.06631697992229142</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07646213470065771</v>
+        <v>0.07632442338289716</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0946783926057979</v>
+        <v>0.09546867050151235</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05820567401629241</v>
+        <v>0.05948862867463602</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04513760651635357</v>
+        <v>0.04561934867082189</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06935187369550294</v>
+        <v>0.06539559420504513</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01011494379915364</v>
+        <v>0.01039770851489336</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02398991818821975</v>
+        <v>0.02447013019422257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05314304089517012</v>
+        <v>0.04985561673649966</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01955704899318439</v>
+        <v>0.02075986558953611</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01957369215659567</v>
+        <v>0.01819560444619696</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03410266813619083</v>
+        <v>0.0342168099121194</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004496572384351241</v>
+        <v>0.004464269198650964</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01836329992703685</v>
+        <v>0.01823538977903188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02595971533512125</v>
+        <v>0.02622433322106377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04939905959751303</v>
+        <v>0.04899841544977734</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.004780082910709157</v>
+        <v>0.00487482101461114</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0492394322211854</v>
+        <v>0.05149606754346832</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06786379006035247</v>
+        <v>0.06717714330502342</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1139581795139439</v>
+        <v>0.1126409217000532</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0323538244186339</v>
+        <v>0.03345597777257207</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05901819380609191</v>
+        <v>0.06139874913711241</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0562620259191222</v>
+        <v>0.05469560928999996</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07744464768122797</v>
+        <v>0.07674184998751812</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02505089356221401</v>
+        <v>0.02617148804645577</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04512395821803771</v>
+        <v>0.04419706340186465</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05397478516426252</v>
+        <v>0.05442397714458735</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08754714817380767</v>
+        <v>0.08514024059900198</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02365733514995013</v>
+        <v>0.02372703815303155</v>
       </c>
     </row>
     <row r="16">
@@ -1252,38 +1252,38 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01253445450374558</v>
+        <v>0.01404303181407485</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01859970488699335</v>
+        <v>0.01882705965482965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01267564486377972</v>
+        <v>0.01065153866618292</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>0.02874682037215695</v>
+        <v>0.02787807377281451</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03385202785262784</v>
+        <v>0.03455088102719489</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0163205647073371</v>
+        <v>0.01579227581525613</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.001960076904718365</v>
+        <v>0.001918597461775086</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02631246866338271</v>
+        <v>0.02635930607682581</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03085260736639964</v>
+        <v>0.03186575830531493</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01822557957317305</v>
+        <v>0.01805104397775812</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.00101897908926469</v>
+        <v>0.001018741881301631</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07056190939581217</v>
+        <v>0.06904255772611612</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07253011781725552</v>
+        <v>0.07464136287750325</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05879138800453125</v>
+        <v>0.0556305897805942</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.09463526924126869</v>
+        <v>0.09485916363549314</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0966483107834142</v>
+        <v>0.0960729749015715</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0620534990557856</v>
+        <v>0.0640507136164017</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01819149762044866</v>
+        <v>0.01772420450324746</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0701909298699947</v>
+        <v>0.07012018227478492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07316146365045989</v>
+        <v>0.07405016556163257</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05006607406747716</v>
+        <v>0.04996226316366419</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01117127630157204</v>
+        <v>0.009697376791019622</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.01116298668101228</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.03428133596122819</v>
+        <v>0.03428133596122818</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.03190739496725307</v>
@@ -1361,7 +1361,7 @@
         <v>0.006476207487519919</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.02732018458977616</v>
+        <v>0.02732018458977615</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02462475013973892</v>
@@ -1373,7 +1373,7 @@
         <v>0.008779826115846066</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.03084067235740847</v>
+        <v>0.03084067235740848</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006498896150517395</v>
+        <v>0.006477563785699404</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007219864184854598</v>
+        <v>0.007203358306767104</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00360615642357792</v>
+        <v>0.003629912427063477</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01672767235397003</v>
+        <v>0.01746874505632843</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01737614557081876</v>
+        <v>0.0171397790886655</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02065820746176847</v>
+        <v>0.02067646712518462</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01302368450953597</v>
+        <v>0.01409670158216792</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01388931791792704</v>
+        <v>0.01418519283123012</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01617605664835491</v>
+        <v>0.01763229353599741</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0033979068626167</v>
+        <v>0.003404569823064414</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01843458128704748</v>
+        <v>0.01910659771981765</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04481664043922248</v>
+        <v>0.04758810788232568</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04030794314245021</v>
+        <v>0.0417997821292838</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02968168728305363</v>
+        <v>0.02953119761396086</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06235608443855228</v>
+        <v>0.06085142491388019</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05713712524186817</v>
+        <v>0.06392383574501835</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06650769149444309</v>
+        <v>0.06352972596300901</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02270679669490129</v>
+        <v>0.02262366069057314</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05181518877563396</v>
+        <v>0.05074674912095385</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04116183765393852</v>
+        <v>0.04158915088604916</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04519488189097697</v>
+        <v>0.04498296980009952</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01903329687037849</v>
+        <v>0.02108265054816497</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05000155577007205</v>
+        <v>0.04780885014447273</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0349264671198519</v>
+        <v>0.03578643692503092</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03202062365829111</v>
+        <v>0.03147720146059262</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01813837553048745</v>
+        <v>0.01811487026723675</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02845577160340119</v>
+        <v>0.02802756297361083</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06306538904810033</v>
+        <v>0.06378463941750809</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0712308277414187</v>
+        <v>0.07081418475068621</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02546635904585577</v>
+        <v>0.025600396319785</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03737020441706712</v>
+        <v>0.03759649653357041</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05425535521288478</v>
+        <v>0.05358942283030937</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05681932020981538</v>
+        <v>0.05585705732368541</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02548431270926415</v>
+        <v>0.02612053489524065</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03632471999279841</v>
+        <v>0.03579483774103827</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07228476743596604</v>
+        <v>0.07246300128488031</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06686405863512553</v>
+        <v>0.06875677847918928</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04607107832941844</v>
+        <v>0.04647000797701727</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05952986054097061</v>
+        <v>0.06027611491857166</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1103427244175075</v>
+        <v>0.1092268075998748</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1177377312948405</v>
+        <v>0.1182181746349229</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05670472976184329</v>
+        <v>0.05653620922350475</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06602311326429969</v>
+        <v>0.06827137035769679</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0852542326231983</v>
+        <v>0.08405859355303547</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08484944059231289</v>
+        <v>0.08456709924726509</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04703965181061404</v>
+        <v>0.0472743147941069</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05623148501288996</v>
+        <v>0.05841708073844314</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.0394730382196753</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.01925247260967481</v>
+        <v>0.01925247260967482</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05678162828334113</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04297235192003018</v>
+        <v>0.04438020147017376</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03053532799241685</v>
+        <v>0.03130197016509197</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01613973808517414</v>
+        <v>0.01723034631380077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.004375757155540809</v>
+        <v>0.004120562712354851</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04007580528834825</v>
+        <v>0.04061804541694974</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04956308264409288</v>
+        <v>0.04873374530843356</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02755839940116201</v>
+        <v>0.02777991936242717</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01186414703992608</v>
+        <v>0.01141838664370634</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04572703077035117</v>
+        <v>0.04632104974423473</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04399302722374795</v>
+        <v>0.04382846534468152</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02499154188707006</v>
+        <v>0.02574803544374515</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01025106732445804</v>
+        <v>0.009711217023301308</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07622608815875924</v>
+        <v>0.07815535654901364</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06105941330946717</v>
+        <v>0.06050042189614438</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04171045885904712</v>
+        <v>0.04105541860095571</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02209088633796343</v>
+        <v>0.02244245158132877</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07414466255185434</v>
+        <v>0.07242198333360951</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08511611950444443</v>
+        <v>0.08555565110580346</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0563950520403819</v>
+        <v>0.05587579214444204</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02909125800894792</v>
+        <v>0.02904003548517872</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06921909345700789</v>
+        <v>0.06952501410167791</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06790022886751752</v>
+        <v>0.06662074690529868</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04430438592528355</v>
+        <v>0.04481665897152137</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02242872820531962</v>
+        <v>0.02227152005623098</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>0.04299949685167812</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.02750468997002447</v>
+        <v>0.02750468997002446</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.05965660651832618</v>
@@ -1781,7 +1781,7 @@
         <v>0.0442585949944832</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.03012159912093358</v>
+        <v>0.03012159912093359</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04055222725945101</v>
+        <v>0.04151607047531067</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04016744845961875</v>
+        <v>0.04013265442900916</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03694020866890367</v>
+        <v>0.03628535554080529</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02233523904975048</v>
+        <v>0.02183776636509726</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05173895366247423</v>
+        <v>0.05153256432590372</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05302306005495679</v>
+        <v>0.05458954365165943</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.038857200067521</v>
+        <v>0.0392127204652896</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0268343685801086</v>
+        <v>0.02772099117759414</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.04826339422890741</v>
+        <v>0.04790087883121463</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.05032109394903201</v>
+        <v>0.04957551096586398</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03965567644738178</v>
+        <v>0.03916936580052433</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02620641083927847</v>
+        <v>0.02601844872632015</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05587957405910527</v>
+        <v>0.05637873244903176</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05506976343677429</v>
+        <v>0.05546055452612214</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05098573309205656</v>
+        <v>0.05017824328809463</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03466438735374289</v>
+        <v>0.03442042464479673</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06841080906021105</v>
+        <v>0.06855843117732992</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.07017522778640328</v>
+        <v>0.07176294956434134</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.0535166411330987</v>
+        <v>0.05325709353075194</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03872562781317904</v>
+        <v>0.03929960356799132</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.05987213360179742</v>
+        <v>0.05924802034955488</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.06118918531158693</v>
+        <v>0.06039417955419019</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.04970562566045438</v>
+        <v>0.0494836400468465</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03474425246465321</v>
+        <v>0.03513277695113132</v>
       </c>
     </row>
     <row r="31">
@@ -2144,40 +2144,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4951</v>
+        <v>5055</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13372</v>
+        <v>13695</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15813</v>
+        <v>15218</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1752</v>
+        <v>1788</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2740</v>
+        <v>3085</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14304</v>
+        <v>13325</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>14691</v>
+        <v>14117</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6327</v>
+        <v>6324</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10115</v>
+        <v>10563</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>32024</v>
+        <v>32494</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>35686</v>
+        <v>35920</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9687</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19478</v>
+        <v>19864</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32832</v>
+        <v>34297</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38337</v>
+        <v>36434</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10570</v>
+        <v>10676</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15359</v>
+        <v>16308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32771</v>
+        <v>33039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34874</v>
+        <v>33835</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27082</v>
+        <v>25877</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29516</v>
+        <v>30014</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>58536</v>
+        <v>57954</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>63378</v>
+        <v>64399</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>31396</v>
+        <v>32085</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18554</v>
+        <v>18321</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24908</v>
+        <v>24003</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24024</v>
+        <v>25024</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15771</v>
+        <v>15080</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>30376</v>
+        <v>29867</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18839</v>
+        <v>19148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25153</v>
+        <v>24934</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15108</v>
+        <v>14688</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>53877</v>
+        <v>54189</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>49634</v>
+        <v>49280</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>54914</v>
+        <v>54804</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>35326</v>
+        <v>35109</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39362</v>
+        <v>40834</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49801</v>
+        <v>48947</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>49081</v>
+        <v>47666</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44426</v>
+        <v>45302</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54336</v>
+        <v>54475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38269</v>
+        <v>39765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49014</v>
+        <v>48621</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>37166</v>
+        <v>34818</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>84511</v>
+        <v>85324</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>82218</v>
+        <v>82547</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>87065</v>
+        <v>87653</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69963</v>
+        <v>68178</v>
       </c>
     </row>
     <row r="12">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15210</v>
+        <v>15140</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5930</v>
+        <v>6179</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1863</v>
+        <v>1775</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8327</v>
+        <v>8378</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14616</v>
+        <v>14482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8105</v>
+        <v>8637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8345</v>
+        <v>7946</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9756</v>
+        <v>10016</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34471</v>
+        <v>35330</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17820</v>
+        <v>18350</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11272</v>
+        <v>11934</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>21940</v>
+        <v>21594</v>
       </c>
     </row>
     <row r="15">
@@ -2548,40 +2548,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36179</v>
+        <v>36008</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19185</v>
+        <v>19025</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11531</v>
+        <v>12071</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25244</v>
+        <v>23869</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34566</v>
+        <v>33270</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23741</v>
+        <v>24749</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22265</v>
+        <v>21778</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26335</v>
+        <v>26288</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>61944</v>
+        <v>62461</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38711</v>
+        <v>39564</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>28992</v>
+        <v>29301</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>45036</v>
+        <v>42467</v>
       </c>
     </row>
     <row r="16">
@@ -2684,40 +2684,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3617</v>
+        <v>3718</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8848</v>
+        <v>9025</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19573</v>
+        <v>18362</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7265</v>
+        <v>7711</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7572</v>
+        <v>7039</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13207</v>
+        <v>13252</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13388</v>
+        <v>13295</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19616</v>
+        <v>19816</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>37326</v>
+        <v>37023</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3778</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="19">
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17609</v>
+        <v>18416</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25028</v>
+        <v>24775</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41972</v>
+        <v>41487</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12045</v>
+        <v>12455</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21923</v>
+        <v>22807</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21764</v>
+        <v>21158</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>29993</v>
+        <v>29721</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>10474</v>
+        <v>10942</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32898</v>
+        <v>32223</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40785</v>
+        <v>41125</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>66150</v>
+        <v>64331</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>18698</v>
+        <v>18754</v>
       </c>
     </row>
     <row r="20">
@@ -2864,35 +2864,35 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2506</v>
+        <v>2807</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3955</v>
+        <v>4003</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2652</v>
+        <v>2228</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
-        <v>5800</v>
+        <v>5624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7434</v>
+        <v>7587</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3551</v>
+        <v>3436</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>10568</v>
+        <v>10587</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>13335</v>
+        <v>13773</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>7778</v>
+        <v>7704</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>443</v>
@@ -2906,38 +2906,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14105</v>
+        <v>13801</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15421</v>
+        <v>15870</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12298</v>
+        <v>11637</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>19093</v>
+        <v>19138</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>21223</v>
+        <v>21097</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13502</v>
+        <v>13937</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>4164</v>
+        <v>4057</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>28192</v>
+        <v>28164</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>31621</v>
+        <v>32005</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>21367</v>
+        <v>21323</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4855</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="24">
@@ -3040,40 +3040,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4514</v>
+        <v>4714</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4833</v>
+        <v>4767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>5763</v>
+        <v>5768</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3435</v>
+        <v>3718</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>7610</v>
+        <v>7773</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>8945</v>
+        <v>9750</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>9837</v>
+        <v>10196</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12091</v>
+        <v>12839</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11044</v>
+        <v>11452</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7810</v>
+        <v>7770</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16828</v>
+        <v>16422</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15892</v>
+        <v>17780</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>18555</v>
+        <v>17724</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6181</v>
+        <v>6158</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13666</v>
+        <v>13384</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>22554</v>
+        <v>22788</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>24991</v>
+        <v>24874</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10189</v>
+        <v>11286</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>26682</v>
+        <v>25512</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>21446</v>
+        <v>21974</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>21117</v>
+        <v>20759</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11795</v>
+        <v>11780</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20222</v>
+        <v>19918</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>40250</v>
+        <v>40709</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>49276</v>
+        <v>48988</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17475</v>
+        <v>17567</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>28544</v>
+        <v>28717</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>67942</v>
+        <v>67108</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>76778</v>
+        <v>75477</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>34059</v>
+        <v>34910</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>53560</v>
+        <v>52778</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>44386</v>
+        <v>44495</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>44096</v>
+        <v>45344</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>29959</v>
+        <v>30218</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>42305</v>
+        <v>42836</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>70423</v>
+        <v>69711</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>81449</v>
+        <v>81781</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>38911</v>
+        <v>38796</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>50429</v>
+        <v>52146</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>106760</v>
+        <v>105263</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>114654</v>
+        <v>114272</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>62868</v>
+        <v>63181</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>82912</v>
+        <v>86134</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>31793</v>
+        <v>32835</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>23790</v>
+        <v>24387</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>12536</v>
+        <v>13383</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3465</v>
+        <v>3263</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>31280</v>
+        <v>31703</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>40779</v>
+        <v>40097</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>22736</v>
+        <v>22919</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>9745</v>
+        <v>9379</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>69522</v>
+        <v>70425</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>70471</v>
+        <v>70208</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>40030</v>
+        <v>41242</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>16537</v>
+        <v>15667</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>56396</v>
+        <v>57823</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>47571</v>
+        <v>47136</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>32398</v>
+        <v>31889</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>17492</v>
+        <v>17771</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>57871</v>
+        <v>56526</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>70032</v>
+        <v>70393</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>46526</v>
+        <v>46098</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>23896</v>
+        <v>23854</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>105238</v>
+        <v>105703</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>108768</v>
+        <v>106718</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>70964</v>
+        <v>71785</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>36183</v>
+        <v>35929</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>132449</v>
+        <v>135597</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>137136</v>
+        <v>137018</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>124673</v>
+        <v>122463</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>78253</v>
+        <v>76510</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>174375</v>
+        <v>173679</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>187897</v>
+        <v>193448</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>137019</v>
+        <v>138272</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>99280</v>
+        <v>102561</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>320295</v>
+        <v>317890</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>350124</v>
+        <v>344937</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>273672</v>
+        <v>270316</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>188773</v>
+        <v>187419</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>182510</v>
+        <v>184140</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>188015</v>
+        <v>189349</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>172077</v>
+        <v>169352</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>121449</v>
+        <v>120594</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>230564</v>
+        <v>231061</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>248679</v>
+        <v>254305</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>188711</v>
+        <v>187796</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>143275</v>
+        <v>145399</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>397336</v>
+        <v>393194</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>425742</v>
+        <v>420211</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>343029</v>
+        <v>341497</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>250274</v>
+        <v>253072</v>
       </c>
     </row>
     <row r="40">
